--- a/Restaurant_KPI_Dashboard.xlsx
+++ b/Restaurant_KPI_Dashboard.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdpet\OneDrive\Desktop\Webapps\Project 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdpet\OneDrive\Desktop\Projects\Project 5\restaurant-kpi-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C212C7-6138-4405-B66D-C2057344D767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4885C69B-4CDE-4BE9-80BA-17484F90BF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{8550CD84-F1A9-470E-BE4F-30DECFC40BC8}"/>
+    <workbookView xWindow="7290" yWindow="2760" windowWidth="15730" windowHeight="9250" xr2:uid="{8550CD84-F1A9-470E-BE4F-30DECFC40BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,71 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="20">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Labor Cost</t>
+  </si>
+  <si>
+    <t>Food Cost</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Avg Order Value</t>
+  </si>
+  <si>
+    <t>Labor %</t>
+  </si>
+  <si>
+    <t>Food %</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,4 +477,2931 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1741603-79A8-4E62-89EE-B6BF1E6FCC18}">
+  <dimension ref="A1:J91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>2702</v>
+      </c>
+      <c r="E2">
+        <v>781.49</v>
+      </c>
+      <c r="F2">
+        <v>855.04</v>
+      </c>
+      <c r="G2">
+        <v>113</v>
+      </c>
+      <c r="H2">
+        <v>23.91</v>
+      </c>
+      <c r="I2">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.31640000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>3516</v>
+      </c>
+      <c r="E3">
+        <v>1088.75</v>
+      </c>
+      <c r="F3">
+        <v>1056.77</v>
+      </c>
+      <c r="G3">
+        <v>112</v>
+      </c>
+      <c r="H3">
+        <v>31.39</v>
+      </c>
+      <c r="I3">
+        <v>0.30969999999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.30059999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2598</v>
+      </c>
+      <c r="E4">
+        <v>726.61</v>
+      </c>
+      <c r="F4">
+        <v>821.18</v>
+      </c>
+      <c r="G4">
+        <v>136</v>
+      </c>
+      <c r="H4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.2797</v>
+      </c>
+      <c r="J4">
+        <v>0.31609999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>2692</v>
+      </c>
+      <c r="E5">
+        <v>812.17</v>
+      </c>
+      <c r="F5">
+        <v>886.38</v>
+      </c>
+      <c r="G5">
+        <v>153</v>
+      </c>
+      <c r="H5">
+        <v>17.59</v>
+      </c>
+      <c r="I5">
+        <v>0.30170000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.32929999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>3551</v>
+      </c>
+      <c r="E6">
+        <v>1040.96</v>
+      </c>
+      <c r="F6">
+        <v>1055.27</v>
+      </c>
+      <c r="G6">
+        <v>143</v>
+      </c>
+      <c r="H6">
+        <v>24.83</v>
+      </c>
+      <c r="I6">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="J6">
+        <v>0.29720000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2547</v>
+      </c>
+      <c r="E7">
+        <v>723.03</v>
+      </c>
+      <c r="F7">
+        <v>739.96</v>
+      </c>
+      <c r="G7">
+        <v>150</v>
+      </c>
+      <c r="H7">
+        <v>16.98</v>
+      </c>
+      <c r="I7">
+        <v>0.28389999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.29049999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>45872</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>3739</v>
+      </c>
+      <c r="E8">
+        <v>1011.26</v>
+      </c>
+      <c r="F8">
+        <v>1075.67</v>
+      </c>
+      <c r="G8">
+        <v>141</v>
+      </c>
+      <c r="H8">
+        <v>26.52</v>
+      </c>
+      <c r="I8">
+        <v>0.27050000000000002</v>
+      </c>
+      <c r="J8">
+        <v>0.28770000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45872</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2544</v>
+      </c>
+      <c r="E9">
+        <v>804.07</v>
+      </c>
+      <c r="F9">
+        <v>810.48</v>
+      </c>
+      <c r="G9">
+        <v>139</v>
+      </c>
+      <c r="H9">
+        <v>18.3</v>
+      </c>
+      <c r="I9">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.31859999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45872</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2665</v>
+      </c>
+      <c r="E10">
+        <v>691.82</v>
+      </c>
+      <c r="F10">
+        <v>835.52</v>
+      </c>
+      <c r="G10">
+        <v>114</v>
+      </c>
+      <c r="H10">
+        <v>23.38</v>
+      </c>
+      <c r="I10">
+        <v>0.2596</v>
+      </c>
+      <c r="J10">
+        <v>0.3135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>3877</v>
+      </c>
+      <c r="E11">
+        <v>1204.4100000000001</v>
+      </c>
+      <c r="F11">
+        <v>1348.04</v>
+      </c>
+      <c r="G11">
+        <v>110</v>
+      </c>
+      <c r="H11">
+        <v>35.25</v>
+      </c>
+      <c r="I11">
+        <v>0.31069999999999998</v>
+      </c>
+      <c r="J11">
+        <v>0.34770000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>3428</v>
+      </c>
+      <c r="E12">
+        <v>1081.5</v>
+      </c>
+      <c r="F12">
+        <v>1079.6400000000001</v>
+      </c>
+      <c r="G12">
+        <v>157</v>
+      </c>
+      <c r="H12">
+        <v>21.83</v>
+      </c>
+      <c r="I12">
+        <v>0.3155</v>
+      </c>
+      <c r="J12">
+        <v>0.31490000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>3551</v>
+      </c>
+      <c r="E13">
+        <v>891.3</v>
+      </c>
+      <c r="F13">
+        <v>1169.1099999999999</v>
+      </c>
+      <c r="G13">
+        <v>126</v>
+      </c>
+      <c r="H13">
+        <v>28.18</v>
+      </c>
+      <c r="I13">
+        <v>0.251</v>
+      </c>
+      <c r="J13">
+        <v>0.32919999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>3561</v>
+      </c>
+      <c r="E14">
+        <v>1130.96</v>
+      </c>
+      <c r="F14">
+        <v>1231.6500000000001</v>
+      </c>
+      <c r="G14">
+        <v>152</v>
+      </c>
+      <c r="H14">
+        <v>23.43</v>
+      </c>
+      <c r="I14">
+        <v>0.31759999999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.34589999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>3038</v>
+      </c>
+      <c r="E15">
+        <v>769.45</v>
+      </c>
+      <c r="F15">
+        <v>1062.96</v>
+      </c>
+      <c r="G15">
+        <v>156</v>
+      </c>
+      <c r="H15">
+        <v>19.47</v>
+      </c>
+      <c r="I15">
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="J15">
+        <v>0.34989999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>2967</v>
+      </c>
+      <c r="E16">
+        <v>887.29</v>
+      </c>
+      <c r="F16">
+        <v>890.43</v>
+      </c>
+      <c r="G16">
+        <v>149</v>
+      </c>
+      <c r="H16">
+        <v>19.91</v>
+      </c>
+      <c r="I16">
+        <v>0.29909999999999998</v>
+      </c>
+      <c r="J16">
+        <v>0.30009999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>3241</v>
+      </c>
+      <c r="E17">
+        <v>941.63</v>
+      </c>
+      <c r="F17">
+        <v>1064.95</v>
+      </c>
+      <c r="G17">
+        <v>158</v>
+      </c>
+      <c r="H17">
+        <v>20.51</v>
+      </c>
+      <c r="I17">
+        <v>0.29049999999999998</v>
+      </c>
+      <c r="J17">
+        <v>0.3286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>2986</v>
+      </c>
+      <c r="E18">
+        <v>843.93</v>
+      </c>
+      <c r="F18">
+        <v>1004.43</v>
+      </c>
+      <c r="G18">
+        <v>112</v>
+      </c>
+      <c r="H18">
+        <v>26.66</v>
+      </c>
+      <c r="I18">
+        <v>0.28260000000000002</v>
+      </c>
+      <c r="J18">
+        <v>0.33639999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>2932</v>
+      </c>
+      <c r="E19">
+        <v>800.57</v>
+      </c>
+      <c r="F19">
+        <v>920.74</v>
+      </c>
+      <c r="G19">
+        <v>123</v>
+      </c>
+      <c r="H19">
+        <v>23.84</v>
+      </c>
+      <c r="I19">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="J19">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>3314</v>
+      </c>
+      <c r="E20">
+        <v>844.2</v>
+      </c>
+      <c r="F20">
+        <v>1120.21</v>
+      </c>
+      <c r="G20">
+        <v>147</v>
+      </c>
+      <c r="H20">
+        <v>22.54</v>
+      </c>
+      <c r="I20">
+        <v>0.25469999999999998</v>
+      </c>
+      <c r="J20">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>2912</v>
+      </c>
+      <c r="E21">
+        <v>858.05</v>
+      </c>
+      <c r="F21">
+        <v>886.21</v>
+      </c>
+      <c r="G21">
+        <v>108</v>
+      </c>
+      <c r="H21">
+        <v>26.96</v>
+      </c>
+      <c r="I21">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="J21">
+        <v>0.30430000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>2648</v>
+      </c>
+      <c r="E22">
+        <v>844.85</v>
+      </c>
+      <c r="F22">
+        <v>766.81</v>
+      </c>
+      <c r="G22">
+        <v>147</v>
+      </c>
+      <c r="H22">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="I22">
+        <v>0.31909999999999999</v>
+      </c>
+      <c r="J22">
+        <v>0.28960000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>3630</v>
+      </c>
+      <c r="E23">
+        <v>1144.58</v>
+      </c>
+      <c r="F23">
+        <v>1168.0999999999999</v>
+      </c>
+      <c r="G23">
+        <v>132</v>
+      </c>
+      <c r="H23">
+        <v>27.5</v>
+      </c>
+      <c r="I23">
+        <v>0.31530000000000002</v>
+      </c>
+      <c r="J23">
+        <v>0.32179999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>3721</v>
+      </c>
+      <c r="E24">
+        <v>980.03</v>
+      </c>
+      <c r="F24">
+        <v>1209.96</v>
+      </c>
+      <c r="G24">
+        <v>114</v>
+      </c>
+      <c r="H24">
+        <v>32.64</v>
+      </c>
+      <c r="I24">
+        <v>0.26340000000000002</v>
+      </c>
+      <c r="J24">
+        <v>0.32519999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>3538</v>
+      </c>
+      <c r="E25">
+        <v>1114.21</v>
+      </c>
+      <c r="F25">
+        <v>1077.5999999999999</v>
+      </c>
+      <c r="G25">
+        <v>125</v>
+      </c>
+      <c r="H25">
+        <v>28.3</v>
+      </c>
+      <c r="I25">
+        <v>0.31490000000000001</v>
+      </c>
+      <c r="J25">
+        <v>0.30459999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>3484</v>
+      </c>
+      <c r="E26">
+        <v>961.16</v>
+      </c>
+      <c r="F26">
+        <v>1143.19</v>
+      </c>
+      <c r="G26">
+        <v>105</v>
+      </c>
+      <c r="H26">
+        <v>33.18</v>
+      </c>
+      <c r="I26">
+        <v>0.27589999999999998</v>
+      </c>
+      <c r="J26">
+        <v>0.3281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>3334</v>
+      </c>
+      <c r="E27">
+        <v>1013.32</v>
+      </c>
+      <c r="F27">
+        <v>1011.03</v>
+      </c>
+      <c r="G27">
+        <v>117</v>
+      </c>
+      <c r="H27">
+        <v>28.5</v>
+      </c>
+      <c r="I27">
+        <v>0.3039</v>
+      </c>
+      <c r="J27">
+        <v>0.30320000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>3373</v>
+      </c>
+      <c r="E28">
+        <v>863.84</v>
+      </c>
+      <c r="F28">
+        <v>1138.78</v>
+      </c>
+      <c r="G28">
+        <v>127</v>
+      </c>
+      <c r="H28">
+        <v>26.56</v>
+      </c>
+      <c r="I28">
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="J28">
+        <v>0.33760000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>3537</v>
+      </c>
+      <c r="E29">
+        <v>944.19</v>
+      </c>
+      <c r="F29">
+        <v>1172.51</v>
+      </c>
+      <c r="G29">
+        <v>116</v>
+      </c>
+      <c r="H29">
+        <v>30.49</v>
+      </c>
+      <c r="I29">
+        <v>0.26690000000000003</v>
+      </c>
+      <c r="J29">
+        <v>0.33150000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>3720</v>
+      </c>
+      <c r="E30">
+        <v>1169.5899999999999</v>
+      </c>
+      <c r="F30">
+        <v>1086.29</v>
+      </c>
+      <c r="G30">
+        <v>115</v>
+      </c>
+      <c r="H30">
+        <v>32.35</v>
+      </c>
+      <c r="I30">
+        <v>0.31440000000000001</v>
+      </c>
+      <c r="J30">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>3399</v>
+      </c>
+      <c r="E31">
+        <v>879.66</v>
+      </c>
+      <c r="F31">
+        <v>967.12</v>
+      </c>
+      <c r="G31">
+        <v>122</v>
+      </c>
+      <c r="H31">
+        <v>27.86</v>
+      </c>
+      <c r="I31">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="J31">
+        <v>0.28449999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>2850</v>
+      </c>
+      <c r="E32">
+        <v>899.47</v>
+      </c>
+      <c r="F32">
+        <v>807.88</v>
+      </c>
+      <c r="G32">
+        <v>111</v>
+      </c>
+      <c r="H32">
+        <v>25.68</v>
+      </c>
+      <c r="I32">
+        <v>0.31559999999999999</v>
+      </c>
+      <c r="J32">
+        <v>0.28349999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>2702</v>
+      </c>
+      <c r="E33">
+        <v>759.85</v>
+      </c>
+      <c r="F33">
+        <v>778.89</v>
+      </c>
+      <c r="G33">
+        <v>134</v>
+      </c>
+      <c r="H33">
+        <v>20.16</v>
+      </c>
+      <c r="I33">
+        <v>0.28120000000000001</v>
+      </c>
+      <c r="J33">
+        <v>0.2883</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>3992</v>
+      </c>
+      <c r="E34">
+        <v>1093.06</v>
+      </c>
+      <c r="F34">
+        <v>1320.38</v>
+      </c>
+      <c r="G34">
+        <v>123</v>
+      </c>
+      <c r="H34">
+        <v>32.46</v>
+      </c>
+      <c r="I34">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="J34">
+        <v>0.33079999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>2888</v>
+      </c>
+      <c r="E35">
+        <v>813.83</v>
+      </c>
+      <c r="F35">
+        <v>865.08</v>
+      </c>
+      <c r="G35">
+        <v>124</v>
+      </c>
+      <c r="H35">
+        <v>23.29</v>
+      </c>
+      <c r="I35">
+        <v>0.28179999999999999</v>
+      </c>
+      <c r="J35">
+        <v>0.29949999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>3268</v>
+      </c>
+      <c r="E36">
+        <v>962.94</v>
+      </c>
+      <c r="F36">
+        <v>1062.04</v>
+      </c>
+      <c r="G36">
+        <v>154</v>
+      </c>
+      <c r="H36">
+        <v>21.22</v>
+      </c>
+      <c r="I36">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="J36">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>3811</v>
+      </c>
+      <c r="E37">
+        <v>1034.5899999999999</v>
+      </c>
+      <c r="F37">
+        <v>1231.02</v>
+      </c>
+      <c r="G37">
+        <v>113</v>
+      </c>
+      <c r="H37">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="I37">
+        <v>0.27150000000000002</v>
+      </c>
+      <c r="J37">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>2745</v>
+      </c>
+      <c r="E38">
+        <v>698.17</v>
+      </c>
+      <c r="F38">
+        <v>949.7</v>
+      </c>
+      <c r="G38">
+        <v>120</v>
+      </c>
+      <c r="H38">
+        <v>22.88</v>
+      </c>
+      <c r="I38">
+        <v>0.25430000000000003</v>
+      </c>
+      <c r="J38">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>3296</v>
+      </c>
+      <c r="E39">
+        <v>849.59</v>
+      </c>
+      <c r="F39">
+        <v>1119.83</v>
+      </c>
+      <c r="G39">
+        <v>134</v>
+      </c>
+      <c r="H39">
+        <v>24.6</v>
+      </c>
+      <c r="I39">
+        <v>0.25779999999999997</v>
+      </c>
+      <c r="J39">
+        <v>0.33979999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>3272</v>
+      </c>
+      <c r="E40">
+        <v>852.7</v>
+      </c>
+      <c r="F40">
+        <v>991.02</v>
+      </c>
+      <c r="G40">
+        <v>106</v>
+      </c>
+      <c r="H40">
+        <v>30.87</v>
+      </c>
+      <c r="I40">
+        <v>0.2606</v>
+      </c>
+      <c r="J40">
+        <v>0.3029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>3885</v>
+      </c>
+      <c r="E41">
+        <v>1074.19</v>
+      </c>
+      <c r="F41">
+        <v>1153.6600000000001</v>
+      </c>
+      <c r="G41">
+        <v>133</v>
+      </c>
+      <c r="H41">
+        <v>29.21</v>
+      </c>
+      <c r="I41">
+        <v>0.27650000000000002</v>
+      </c>
+      <c r="J41">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>2769</v>
+      </c>
+      <c r="E42">
+        <v>871.74</v>
+      </c>
+      <c r="F42">
+        <v>791.6</v>
+      </c>
+      <c r="G42">
+        <v>149</v>
+      </c>
+      <c r="H42">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="I42">
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="J42">
+        <v>0.28589999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>3082</v>
+      </c>
+      <c r="E43">
+        <v>882.67</v>
+      </c>
+      <c r="F43">
+        <v>1005.76</v>
+      </c>
+      <c r="G43">
+        <v>137</v>
+      </c>
+      <c r="H43">
+        <v>22.5</v>
+      </c>
+      <c r="I43">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="J43">
+        <v>0.32629999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>3912</v>
+      </c>
+      <c r="E44">
+        <v>1131.49</v>
+      </c>
+      <c r="F44">
+        <v>1330.75</v>
+      </c>
+      <c r="G44">
+        <v>125</v>
+      </c>
+      <c r="H44">
+        <v>31.3</v>
+      </c>
+      <c r="I44">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="J44">
+        <v>0.3402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>3081</v>
+      </c>
+      <c r="E45">
+        <v>784.42</v>
+      </c>
+      <c r="F45">
+        <v>983.81</v>
+      </c>
+      <c r="G45">
+        <v>123</v>
+      </c>
+      <c r="H45">
+        <v>25.05</v>
+      </c>
+      <c r="I45">
+        <v>0.25459999999999999</v>
+      </c>
+      <c r="J45">
+        <v>0.31929999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>3238</v>
+      </c>
+      <c r="E46">
+        <v>1001.41</v>
+      </c>
+      <c r="F46">
+        <v>1077.18</v>
+      </c>
+      <c r="G46">
+        <v>145</v>
+      </c>
+      <c r="H46">
+        <v>22.33</v>
+      </c>
+      <c r="I46">
+        <v>0.30930000000000002</v>
+      </c>
+      <c r="J46">
+        <v>0.3327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>3696</v>
+      </c>
+      <c r="E47">
+        <v>959.12</v>
+      </c>
+      <c r="F47">
+        <v>1282.23</v>
+      </c>
+      <c r="G47">
+        <v>105</v>
+      </c>
+      <c r="H47">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="I47">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="J47">
+        <v>0.34689999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>3507</v>
+      </c>
+      <c r="E48">
+        <v>922.84</v>
+      </c>
+      <c r="F48">
+        <v>1114.6600000000001</v>
+      </c>
+      <c r="G48">
+        <v>133</v>
+      </c>
+      <c r="H48">
+        <v>26.37</v>
+      </c>
+      <c r="I48">
+        <v>0.2631</v>
+      </c>
+      <c r="J48">
+        <v>0.31780000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>2996</v>
+      </c>
+      <c r="E49">
+        <v>895.34</v>
+      </c>
+      <c r="F49">
+        <v>842.24</v>
+      </c>
+      <c r="G49">
+        <v>135</v>
+      </c>
+      <c r="H49">
+        <v>22.19</v>
+      </c>
+      <c r="I49">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="J49">
+        <v>0.28110000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>3039</v>
+      </c>
+      <c r="E50">
+        <v>820.08</v>
+      </c>
+      <c r="F50">
+        <v>966.87</v>
+      </c>
+      <c r="G50">
+        <v>125</v>
+      </c>
+      <c r="H50">
+        <v>24.31</v>
+      </c>
+      <c r="I50">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="J50">
+        <v>0.31819999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>3231</v>
+      </c>
+      <c r="E51">
+        <v>1010.81</v>
+      </c>
+      <c r="F51">
+        <v>913.77</v>
+      </c>
+      <c r="G51">
+        <v>140</v>
+      </c>
+      <c r="H51">
+        <v>23.08</v>
+      </c>
+      <c r="I51">
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="J51">
+        <v>0.2828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>3289</v>
+      </c>
+      <c r="E52">
+        <v>930.13</v>
+      </c>
+      <c r="F52">
+        <v>1056.76</v>
+      </c>
+      <c r="G52">
+        <v>139</v>
+      </c>
+      <c r="H52">
+        <v>23.66</v>
+      </c>
+      <c r="I52">
+        <v>0.2828</v>
+      </c>
+      <c r="J52">
+        <v>0.32129999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>2566</v>
+      </c>
+      <c r="E53">
+        <v>732.61</v>
+      </c>
+      <c r="F53">
+        <v>812.1</v>
+      </c>
+      <c r="G53">
+        <v>105</v>
+      </c>
+      <c r="H53">
+        <v>24.44</v>
+      </c>
+      <c r="I53">
+        <v>0.28549999999999998</v>
+      </c>
+      <c r="J53">
+        <v>0.3165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>3210</v>
+      </c>
+      <c r="E54">
+        <v>819.58</v>
+      </c>
+      <c r="F54">
+        <v>1062.83</v>
+      </c>
+      <c r="G54">
+        <v>108</v>
+      </c>
+      <c r="H54">
+        <v>29.72</v>
+      </c>
+      <c r="I54">
+        <v>0.25530000000000003</v>
+      </c>
+      <c r="J54">
+        <v>0.33110000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <v>3715</v>
+      </c>
+      <c r="E55">
+        <v>1013.74</v>
+      </c>
+      <c r="F55">
+        <v>1216.8699999999999</v>
+      </c>
+      <c r="G55">
+        <v>136</v>
+      </c>
+      <c r="H55">
+        <v>27.32</v>
+      </c>
+      <c r="I55">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="J55">
+        <v>0.3276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56">
+        <v>3374</v>
+      </c>
+      <c r="E56">
+        <v>903.35</v>
+      </c>
+      <c r="F56">
+        <v>968.37</v>
+      </c>
+      <c r="G56">
+        <v>153</v>
+      </c>
+      <c r="H56">
+        <v>22.05</v>
+      </c>
+      <c r="I56">
+        <v>0.26769999999999999</v>
+      </c>
+      <c r="J56">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>2877</v>
+      </c>
+      <c r="E57">
+        <v>785.4</v>
+      </c>
+      <c r="F57">
+        <v>861.58</v>
+      </c>
+      <c r="G57">
+        <v>140</v>
+      </c>
+      <c r="H57">
+        <v>20.55</v>
+      </c>
+      <c r="I57">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="J57">
+        <v>0.29949999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>3199</v>
+      </c>
+      <c r="E58">
+        <v>942.16</v>
+      </c>
+      <c r="F58">
+        <v>949.77</v>
+      </c>
+      <c r="G58">
+        <v>116</v>
+      </c>
+      <c r="H58">
+        <v>27.58</v>
+      </c>
+      <c r="I58">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="J58">
+        <v>0.2969</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>3083</v>
+      </c>
+      <c r="E59">
+        <v>832.34</v>
+      </c>
+      <c r="F59">
+        <v>1019.82</v>
+      </c>
+      <c r="G59">
+        <v>159</v>
+      </c>
+      <c r="H59">
+        <v>19.39</v>
+      </c>
+      <c r="I59">
+        <v>0.27</v>
+      </c>
+      <c r="J59">
+        <v>0.33079999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60">
+        <v>3151</v>
+      </c>
+      <c r="E60">
+        <v>898.82</v>
+      </c>
+      <c r="F60">
+        <v>1056.71</v>
+      </c>
+      <c r="G60">
+        <v>138</v>
+      </c>
+      <c r="H60">
+        <v>22.83</v>
+      </c>
+      <c r="I60">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="J60">
+        <v>0.33539999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61">
+        <v>3140</v>
+      </c>
+      <c r="E61">
+        <v>904.18</v>
+      </c>
+      <c r="F61">
+        <v>888.63</v>
+      </c>
+      <c r="G61">
+        <v>108</v>
+      </c>
+      <c r="H61">
+        <v>29.07</v>
+      </c>
+      <c r="I61">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J61">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>3133</v>
+      </c>
+      <c r="E62">
+        <v>962.81</v>
+      </c>
+      <c r="F62">
+        <v>899.74</v>
+      </c>
+      <c r="G62">
+        <v>138</v>
+      </c>
+      <c r="H62">
+        <v>22.7</v>
+      </c>
+      <c r="I62">
+        <v>0.30730000000000002</v>
+      </c>
+      <c r="J62">
+        <v>0.28720000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63">
+        <v>2820</v>
+      </c>
+      <c r="E63">
+        <v>728.58</v>
+      </c>
+      <c r="F63">
+        <v>897.35</v>
+      </c>
+      <c r="G63">
+        <v>116</v>
+      </c>
+      <c r="H63">
+        <v>24.31</v>
+      </c>
+      <c r="I63">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="J63">
+        <v>0.31819999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>2687</v>
+      </c>
+      <c r="E64">
+        <v>819.06</v>
+      </c>
+      <c r="F64">
+        <v>833.89</v>
+      </c>
+      <c r="G64">
+        <v>124</v>
+      </c>
+      <c r="H64">
+        <v>21.67</v>
+      </c>
+      <c r="I64">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="J64">
+        <v>0.31030000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>3801</v>
+      </c>
+      <c r="E65">
+        <v>1052.6099999999999</v>
+      </c>
+      <c r="F65">
+        <v>1091.8699999999999</v>
+      </c>
+      <c r="G65">
+        <v>144</v>
+      </c>
+      <c r="H65">
+        <v>26.4</v>
+      </c>
+      <c r="I65">
+        <v>0.27689999999999998</v>
+      </c>
+      <c r="J65">
+        <v>0.2873</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>2707</v>
+      </c>
+      <c r="E66">
+        <v>732.59</v>
+      </c>
+      <c r="F66">
+        <v>904.27</v>
+      </c>
+      <c r="G66">
+        <v>136</v>
+      </c>
+      <c r="H66">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I66">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="J66">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67">
+        <v>3423</v>
+      </c>
+      <c r="E67">
+        <v>968.51</v>
+      </c>
+      <c r="F67">
+        <v>1144.53</v>
+      </c>
+      <c r="G67">
+        <v>146</v>
+      </c>
+      <c r="H67">
+        <v>23.45</v>
+      </c>
+      <c r="I67">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="J67">
+        <v>0.33439999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68">
+        <v>3773</v>
+      </c>
+      <c r="E68">
+        <v>965.99</v>
+      </c>
+      <c r="F68">
+        <v>1160.45</v>
+      </c>
+      <c r="G68">
+        <v>138</v>
+      </c>
+      <c r="H68">
+        <v>27.34</v>
+      </c>
+      <c r="I68">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="J68">
+        <v>0.30759999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69">
+        <v>2925</v>
+      </c>
+      <c r="E69">
+        <v>917.89</v>
+      </c>
+      <c r="F69">
+        <v>864.4</v>
+      </c>
+      <c r="G69">
+        <v>119</v>
+      </c>
+      <c r="H69">
+        <v>24.58</v>
+      </c>
+      <c r="I69">
+        <v>0.31380000000000002</v>
+      </c>
+      <c r="J69">
+        <v>0.29549999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70">
+        <v>2960</v>
+      </c>
+      <c r="E70">
+        <v>867.61</v>
+      </c>
+      <c r="F70">
+        <v>838.1</v>
+      </c>
+      <c r="G70">
+        <v>159</v>
+      </c>
+      <c r="H70">
+        <v>18.62</v>
+      </c>
+      <c r="I70">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="J70">
+        <v>0.28310000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>45893</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>3784</v>
+      </c>
+      <c r="E71">
+        <v>1039.02</v>
+      </c>
+      <c r="F71">
+        <v>1321.63</v>
+      </c>
+      <c r="G71">
+        <v>114</v>
+      </c>
+      <c r="H71">
+        <v>33.19</v>
+      </c>
+      <c r="I71">
+        <v>0.27460000000000001</v>
+      </c>
+      <c r="J71">
+        <v>0.3493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>45893</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>3505</v>
+      </c>
+      <c r="E72">
+        <v>1086.3399999999999</v>
+      </c>
+      <c r="F72">
+        <v>1001.33</v>
+      </c>
+      <c r="G72">
+        <v>153</v>
+      </c>
+      <c r="H72">
+        <v>22.91</v>
+      </c>
+      <c r="I72">
+        <v>0.30990000000000001</v>
+      </c>
+      <c r="J72">
+        <v>0.28570000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>45893</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>3798</v>
+      </c>
+      <c r="E73">
+        <v>1061.77</v>
+      </c>
+      <c r="F73">
+        <v>1218.42</v>
+      </c>
+      <c r="G73">
+        <v>133</v>
+      </c>
+      <c r="H73">
+        <v>28.56</v>
+      </c>
+      <c r="I73">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="J73">
+        <v>0.32079999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74">
+        <v>2955</v>
+      </c>
+      <c r="E74">
+        <v>825.91</v>
+      </c>
+      <c r="F74">
+        <v>968.65</v>
+      </c>
+      <c r="G74">
+        <v>131</v>
+      </c>
+      <c r="H74">
+        <v>22.56</v>
+      </c>
+      <c r="I74">
+        <v>0.27950000000000003</v>
+      </c>
+      <c r="J74">
+        <v>0.32779999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <v>3652</v>
+      </c>
+      <c r="E75">
+        <v>977.71</v>
+      </c>
+      <c r="F75">
+        <v>1186.21</v>
+      </c>
+      <c r="G75">
+        <v>116</v>
+      </c>
+      <c r="H75">
+        <v>31.48</v>
+      </c>
+      <c r="I75">
+        <v>0.26769999999999999</v>
+      </c>
+      <c r="J75">
+        <v>0.32479999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76">
+        <v>2629</v>
+      </c>
+      <c r="E76">
+        <v>824.75</v>
+      </c>
+      <c r="F76">
+        <v>870.09</v>
+      </c>
+      <c r="G76">
+        <v>106</v>
+      </c>
+      <c r="H76">
+        <v>24.8</v>
+      </c>
+      <c r="I76">
+        <v>0.31369999999999998</v>
+      </c>
+      <c r="J76">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77">
+        <v>2834</v>
+      </c>
+      <c r="E77">
+        <v>799.13</v>
+      </c>
+      <c r="F77">
+        <v>818.15</v>
+      </c>
+      <c r="G77">
+        <v>132</v>
+      </c>
+      <c r="H77">
+        <v>21.47</v>
+      </c>
+      <c r="I77">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="J77">
+        <v>0.28870000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78">
+        <v>2889</v>
+      </c>
+      <c r="E78">
+        <v>900.32</v>
+      </c>
+      <c r="F78">
+        <v>856.68</v>
+      </c>
+      <c r="G78">
+        <v>120</v>
+      </c>
+      <c r="H78">
+        <v>24.07</v>
+      </c>
+      <c r="I78">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="J78">
+        <v>0.29649999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79">
+        <v>3470</v>
+      </c>
+      <c r="E79">
+        <v>1024.17</v>
+      </c>
+      <c r="F79">
+        <v>1208.55</v>
+      </c>
+      <c r="G79">
+        <v>114</v>
+      </c>
+      <c r="H79">
+        <v>30.44</v>
+      </c>
+      <c r="I79">
+        <v>0.29509999999999997</v>
+      </c>
+      <c r="J79">
+        <v>0.3483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80">
+        <v>2941</v>
+      </c>
+      <c r="E80">
+        <v>918.3</v>
+      </c>
+      <c r="F80">
+        <v>1000.05</v>
+      </c>
+      <c r="G80">
+        <v>125</v>
+      </c>
+      <c r="H80">
+        <v>23.53</v>
+      </c>
+      <c r="I80">
+        <v>0.31219999999999998</v>
+      </c>
+      <c r="J80">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81">
+        <v>2695</v>
+      </c>
+      <c r="E81">
+        <v>809.09</v>
+      </c>
+      <c r="F81">
+        <v>793.16</v>
+      </c>
+      <c r="G81">
+        <v>131</v>
+      </c>
+      <c r="H81">
+        <v>20.57</v>
+      </c>
+      <c r="I81">
+        <v>0.30020000000000002</v>
+      </c>
+      <c r="J81">
+        <v>0.29430000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82">
+        <v>3402</v>
+      </c>
+      <c r="E82">
+        <v>1051</v>
+      </c>
+      <c r="F82">
+        <v>1110.25</v>
+      </c>
+      <c r="G82">
+        <v>152</v>
+      </c>
+      <c r="H82">
+        <v>22.38</v>
+      </c>
+      <c r="I82">
+        <v>0.30890000000000001</v>
+      </c>
+      <c r="J82">
+        <v>0.32640000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83">
+        <v>2692</v>
+      </c>
+      <c r="E83">
+        <v>731.27</v>
+      </c>
+      <c r="F83">
+        <v>837.92</v>
+      </c>
+      <c r="G83">
+        <v>159</v>
+      </c>
+      <c r="H83">
+        <v>16.93</v>
+      </c>
+      <c r="I83">
+        <v>0.27160000000000001</v>
+      </c>
+      <c r="J83">
+        <v>0.31130000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84">
+        <v>2670</v>
+      </c>
+      <c r="E84">
+        <v>842.31</v>
+      </c>
+      <c r="F84">
+        <v>761.05</v>
+      </c>
+      <c r="G84">
+        <v>142</v>
+      </c>
+      <c r="H84">
+        <v>18.8</v>
+      </c>
+      <c r="I84">
+        <v>0.3155</v>
+      </c>
+      <c r="J84">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85">
+        <v>3115</v>
+      </c>
+      <c r="E85">
+        <v>902.38</v>
+      </c>
+      <c r="F85">
+        <v>1064.05</v>
+      </c>
+      <c r="G85">
+        <v>143</v>
+      </c>
+      <c r="H85">
+        <v>21.78</v>
+      </c>
+      <c r="I85">
+        <v>0.28970000000000001</v>
+      </c>
+      <c r="J85">
+        <v>0.34160000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>3069</v>
+      </c>
+      <c r="E86">
+        <v>832.56</v>
+      </c>
+      <c r="F86">
+        <v>941.2</v>
+      </c>
+      <c r="G86">
+        <v>119</v>
+      </c>
+      <c r="H86">
+        <v>25.79</v>
+      </c>
+      <c r="I86">
+        <v>0.27129999999999999</v>
+      </c>
+      <c r="J86">
+        <v>0.30669999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>3575</v>
+      </c>
+      <c r="E87">
+        <v>895.66</v>
+      </c>
+      <c r="F87">
+        <v>1236.94</v>
+      </c>
+      <c r="G87">
+        <v>136</v>
+      </c>
+      <c r="H87">
+        <v>26.29</v>
+      </c>
+      <c r="I87">
+        <v>0.2505</v>
+      </c>
+      <c r="J87">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>2967</v>
+      </c>
+      <c r="E88">
+        <v>861.08</v>
+      </c>
+      <c r="F88">
+        <v>851.17</v>
+      </c>
+      <c r="G88">
+        <v>153</v>
+      </c>
+      <c r="H88">
+        <v>19.39</v>
+      </c>
+      <c r="I88">
+        <v>0.29020000000000001</v>
+      </c>
+      <c r="J88">
+        <v>0.28689999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>45899</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>3703</v>
+      </c>
+      <c r="E89">
+        <v>1151.3499999999999</v>
+      </c>
+      <c r="F89">
+        <v>1154.67</v>
+      </c>
+      <c r="G89">
+        <v>129</v>
+      </c>
+      <c r="H89">
+        <v>28.71</v>
+      </c>
+      <c r="I89">
+        <v>0.31090000000000001</v>
+      </c>
+      <c r="J89">
+        <v>0.31180000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>45899</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90">
+        <v>3674</v>
+      </c>
+      <c r="E90">
+        <v>1009.54</v>
+      </c>
+      <c r="F90">
+        <v>1060.71</v>
+      </c>
+      <c r="G90">
+        <v>105</v>
+      </c>
+      <c r="H90">
+        <v>34.99</v>
+      </c>
+      <c r="I90">
+        <v>0.27479999999999999</v>
+      </c>
+      <c r="J90">
+        <v>0.28870000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>45899</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91">
+        <v>3127</v>
+      </c>
+      <c r="E91">
+        <v>929.91</v>
+      </c>
+      <c r="F91">
+        <v>1088.06</v>
+      </c>
+      <c r="G91">
+        <v>152</v>
+      </c>
+      <c r="H91">
+        <v>20.57</v>
+      </c>
+      <c r="I91">
+        <v>0.2974</v>
+      </c>
+      <c r="J91">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>